--- a/scripts/shstrophies/data/Mr Torren_s initial data input/Fall Awards/G. Golf.xlsx
+++ b/scripts/shstrophies/data/Mr Torren_s initial data input/Fall Awards/G. Golf.xlsx
@@ -44,12 +44,12 @@
     <t>2002/2003</t>
   </si>
   <si>
+    <t>2008/2009</t>
+  </si>
+  <si>
     <t>2003/2004</t>
   </si>
   <si>
-    <t>2008/2009</t>
-  </si>
-  <si>
     <t>2004/2005</t>
   </si>
   <si>
@@ -59,42 +59,45 @@
     <t>2006/2007</t>
   </si>
   <si>
+    <t>2009/2010</t>
+  </si>
+  <si>
+    <t>Ramya Swami</t>
+  </si>
+  <si>
+    <t>Raven Sisco</t>
+  </si>
+  <si>
     <t>2007/2008</t>
   </si>
   <si>
-    <t>2009/2010</t>
-  </si>
-  <si>
-    <t>Ramya Swami</t>
-  </si>
-  <si>
-    <t>Raven Sisco</t>
-  </si>
-  <si>
     <t>Sarah Kuo</t>
   </si>
   <si>
     <t>2010/2011</t>
   </si>
   <si>
+    <t>2011/2012</t>
+  </si>
+  <si>
     <t>Uttara Sivaram</t>
   </si>
   <si>
+    <t>2012/2013</t>
+  </si>
+  <si>
     <t>Sachi Verma</t>
   </si>
   <si>
-    <t>2011/2012</t>
-  </si>
-  <si>
-    <t>2012/2013</t>
-  </si>
-  <si>
     <t>2013/2014</t>
   </si>
   <si>
     <t>2014/2015</t>
   </si>
   <si>
+    <t>2015/2016</t>
+  </si>
+  <si>
     <t>Vivian Roan</t>
   </si>
   <si>
@@ -110,19 +113,16 @@
     <t>Meghan Shah</t>
   </si>
   <si>
+    <t>2016/2017</t>
+  </si>
+  <si>
+    <t>2017/2018</t>
+  </si>
+  <si>
+    <t>2018/2019</t>
+  </si>
+  <si>
     <t>Cynthia Yang</t>
-  </si>
-  <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
-    <t>2016/2017</t>
-  </si>
-  <si>
-    <t>2017/2018</t>
-  </si>
-  <si>
-    <t>2018/2019</t>
   </si>
   <si>
     <t>2017-2018</t>
@@ -183,11 +183,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -238,22 +238,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="4"/>
@@ -309,7 +309,7 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -348,7 +348,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -358,7 +358,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -368,7 +368,7 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -389,10 +389,10 @@
         <v>20</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -400,7 +400,7 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -410,7 +410,7 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -433,26 +433,26 @@
         <v>26</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -468,7 +468,7 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -478,7 +478,7 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -518,13 +518,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -612,13 +612,13 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>19</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -701,7 +701,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -813,17 +813,17 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
